--- a/Meeting notes/audit table ideation.xlsx
+++ b/Meeting notes/audit table ideation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ei Nghon Phoo\Desktop\New folder\merchant-payment-docs\Meeting notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032D54EF-BFFC-43CF-8C2F-16EB2500A9DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD317CCA-F4EA-4B31-A10D-118AF9D82F07}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="4330" windowHeight="350" xr2:uid="{2D630558-97B0-402D-8DD5-5C6BAD930BF8}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
